--- a/docs/io_pins.xlsx
+++ b/docs/io_pins.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Library\Github\ssis.bit\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A9C59D-14B1-4C96-A7F9-D7C467DB171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB79842B-8714-43C6-9F6A-D4ED6B59A546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21015" yWindow="1515" windowWidth="19065" windowHeight="17010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="1770" windowWidth="18945" windowHeight="17025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="board" sheetId="1" r:id="rId1"/>
+    <sheet name="GPIO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="133">
   <si>
     <t>python</t>
   </si>
@@ -286,6 +287,144 @@
   </si>
   <si>
     <t>board.SD_MOSI</t>
+  </si>
+  <si>
+    <t>SD_CS</t>
+  </si>
+  <si>
+    <t>PE_POWER</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>IO0</t>
+  </si>
+  <si>
+    <t>IO1</t>
+  </si>
+  <si>
+    <t>IO2</t>
+  </si>
+  <si>
+    <t>IO3</t>
+  </si>
+  <si>
+    <t>IO4</t>
+  </si>
+  <si>
+    <t>IO5</t>
+  </si>
+  <si>
+    <t>IO6</t>
+  </si>
+  <si>
+    <t>IO7</t>
+  </si>
+  <si>
+    <t>IO8</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>LCD_BCKL</t>
+  </si>
+  <si>
+    <t>LCD_CS</t>
+  </si>
+  <si>
+    <t>LCD_MOSI</t>
+  </si>
+  <si>
+    <t>LCD_CLK</t>
+  </si>
+  <si>
+    <t>LCD_D_C</t>
+  </si>
+  <si>
+    <t>LCD_RST</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>BATTERY</t>
+  </si>
+  <si>
+    <t>SD_MOSI</t>
+  </si>
+  <si>
+    <t>SD_CLK</t>
+  </si>
+  <si>
+    <t>SD_MISO</t>
+  </si>
+  <si>
+    <t>TX1</t>
+  </si>
+  <si>
+    <t>RX1</t>
+  </si>
+  <si>
+    <t>GPIO summary:</t>
+  </si>
+  <si>
+    <t>43 GPIO (0-21 (22) and 26-46 (21))</t>
+  </si>
+  <si>
+    <t>6 not exposed for LCD (33 to 38)</t>
+  </si>
+  <si>
+    <t>7 not exposed at all (26 to 32)</t>
+  </si>
+  <si>
+    <t>2 exposed as USB/OTG (43 and 44)</t>
+  </si>
+  <si>
+    <t>3 further not exposed (9 battery, 10 SD_CS and 14 PE_POWER)</t>
+  </si>
+  <si>
+    <t>3 exposed for SD read (11 to 13)</t>
+  </si>
+  <si>
+    <t>22 GPIO ready to use (43-21 as 0-8, 15-21, 39-42, 45-46)</t>
+  </si>
+  <si>
+    <t>2 will be used for I2C</t>
+  </si>
+  <si>
+    <t>3 will be used for input buttons (0, 1, 2)</t>
+  </si>
+  <si>
+    <t>LilyGo T7 ST7789</t>
+  </si>
+  <si>
+    <t>GPIO33</t>
+  </si>
+  <si>
+    <t>disp_BCKL</t>
+  </si>
+  <si>
+    <t>GPIO0</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>I2C SCL</t>
+  </si>
+  <si>
+    <t>I2C SDA</t>
   </si>
 </sst>
 </file>
@@ -307,7 +446,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,7 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,11 +490,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,26 +785,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -659,11 +820,9 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -677,231 +836,394 @@
       <c r="J1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
       <c r="I3" t="s">
         <v>39</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" t="s">
+        <v>130</v>
+      </c>
       <c r="I4" t="s">
         <v>40</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>46</v>
+      </c>
       <c r="B5" t="s">
         <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" t="s">
         <v>58</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>45</v>
+      </c>
       <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="3"/>
       <c r="I6" t="s">
         <v>59</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="S6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>42</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="3"/>
       <c r="I7" t="s">
         <v>60</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7">
+        <v>31</v>
+      </c>
+      <c r="S7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>41</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" t="s">
         <v>61</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8">
+        <v>32</v>
+      </c>
+      <c r="S8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="3"/>
       <c r="I9" t="s">
         <v>62</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9">
+        <v>33</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="3"/>
       <c r="I10" t="s">
         <v>63</v>
       </c>
       <c r="J10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10">
+        <v>34</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" t="s">
+        <v>131</v>
+      </c>
       <c r="I11" t="s">
         <v>65</v>
       </c>
       <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="M11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11">
+        <v>35</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
       <c r="I12" t="s">
         <v>66</v>
       </c>
       <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="M12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+      <c r="N12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12">
+        <v>36</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -913,13 +1235,28 @@
       <c r="J13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13">
+        <v>37</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -931,13 +1268,28 @@
       <c r="J14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="M14">
         <v>12</v>
       </c>
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14">
+        <v>38</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -949,13 +1301,28 @@
       <c r="J15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15">
+        <v>39</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G16" t="s">
@@ -970,13 +1337,25 @@
       <c r="J16">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16">
+        <v>40</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G17" t="s">
@@ -991,13 +1370,25 @@
       <c r="J17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17">
+        <v>41</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G18" t="s">
@@ -1012,16 +1403,28 @@
       <c r="J18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18">
+        <v>42</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G19" t="s">
@@ -1036,69 +1439,609 @@
       <c r="J19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19">
+        <v>43</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20">
+        <v>44</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21">
+        <v>45</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22">
+        <v>46</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
       <c r="G24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F84A7D-D8D4-45ED-A61D-82A865234123}">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C48" sqref="A28:C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
